--- a/config/MiniTemplate/Datas/jig-g-关卡.xlsx
+++ b/config/MiniTemplate/Datas/jig-g-关卡.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="125">
   <si>
     <t>##var</t>
   </si>
@@ -44,34 +44,34 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>c</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>next_level</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>(list#sep=;),int</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>章节id</t>
     <rPh sb="0" eb="2">
       <t>guan</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>章节名称
@@ -79,119 +79,119 @@
     <rPh sb="0" eb="2">
       <t>guan</t>
     </rPh>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>下一章章节id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>章节图片
 （配置资源名称）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>chapter_figure</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>chapter_title</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>next_chapter</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>level_id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>x轴切分数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>y轴切分数量</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Chapter_title_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Chapter_title_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Chapter_title_3</t>
   </si>
   <si>
     <t>章节中关卡id</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>chapter_figure_x</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>chapter_figure_y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>level_figure_x</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>level_figure_y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>关卡图片
 （配置资源名称）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_figure</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>difficulty_tier</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>level_figure</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>difficulty_tier</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>关卡难度
 1.普通
 2.困难</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>out_of_place_number</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>至多{0}块在原位</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>m_distance_range</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>总曼哈顿距离范围
 （左闭右闭）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>6,11</t>
@@ -213,121 +213,255 @@
   </si>
   <si>
     <t>(list#sep=,),int</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture-1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>chapter</t>
   </si>
   <si>
-    <r>
-      <t>picture-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>picture-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>picture-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>picture-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>picture-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>picture-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>pic_1</t>
+  </si>
+  <si>
+    <t>pic_2</t>
+  </si>
+  <si>
+    <t>pic_3</t>
+  </si>
+  <si>
+    <t>pic_4</t>
+  </si>
+  <si>
+    <t>pic_5</t>
+  </si>
+  <si>
+    <t>pic_6</t>
+  </si>
+  <si>
+    <t>pic_7</t>
+  </si>
+  <si>
+    <t>pic_8</t>
+  </si>
+  <si>
+    <t>pic_9</t>
+  </si>
+  <si>
+    <t>pic_10</t>
+  </si>
+  <si>
+    <t>pic_11</t>
+  </si>
+  <si>
+    <t>pic_12</t>
+  </si>
+  <si>
+    <t>pic_13</t>
+  </si>
+  <si>
+    <t>pic_14</t>
+  </si>
+  <si>
+    <t>pic_15</t>
+  </si>
+  <si>
+    <t>pic_16</t>
+  </si>
+  <si>
+    <t>pic_17</t>
+  </si>
+  <si>
+    <t>pic_18</t>
+  </si>
+  <si>
+    <t>pic_19</t>
+  </si>
+  <si>
+    <t>pic_20</t>
+  </si>
+  <si>
+    <t>pic_21</t>
+  </si>
+  <si>
+    <t>pic_22</t>
+  </si>
+  <si>
+    <t>pic_23</t>
+  </si>
+  <si>
+    <t>pic_24</t>
+  </si>
+  <si>
+    <t>pic_25</t>
+  </si>
+  <si>
+    <t>pic_26</t>
+  </si>
+  <si>
+    <t>pic_27</t>
+  </si>
+  <si>
+    <t>pic_28</t>
+  </si>
+  <si>
+    <t>pic_29</t>
+  </si>
+  <si>
+    <t>pic_30</t>
+  </si>
+  <si>
+    <t>pic_31</t>
+  </si>
+  <si>
+    <t>pic_32</t>
+  </si>
+  <si>
+    <t>pic_33</t>
+  </si>
+  <si>
+    <t>pic_34</t>
+  </si>
+  <si>
+    <t>pic_35</t>
+  </si>
+  <si>
+    <t>pic_36</t>
+  </si>
+  <si>
+    <t>pic_37</t>
+  </si>
+  <si>
+    <t>pic_38</t>
+  </si>
+  <si>
+    <t>pic_39</t>
+  </si>
+  <si>
+    <t>pic_40</t>
+  </si>
+  <si>
+    <t>pic_41</t>
+  </si>
+  <si>
+    <t>pic_42</t>
+  </si>
+  <si>
+    <t>pic_43</t>
+  </si>
+  <si>
+    <t>pic_44</t>
+  </si>
+  <si>
+    <t>pic_45</t>
+  </si>
+  <si>
+    <t>pic_46</t>
+  </si>
+  <si>
+    <t>pic_47</t>
+  </si>
+  <si>
+    <t>pic_48</t>
+  </si>
+  <si>
+    <t>pic_49</t>
+  </si>
+  <si>
+    <t>pic_50</t>
+  </si>
+  <si>
+    <t>pic_51</t>
+  </si>
+  <si>
+    <t>pic_52</t>
+  </si>
+  <si>
+    <t>pic_53</t>
+  </si>
+  <si>
+    <t>pic_54</t>
+  </si>
+  <si>
+    <t>pic_55</t>
+  </si>
+  <si>
+    <t>pic_56</t>
+  </si>
+  <si>
+    <t>pic_57</t>
+  </si>
+  <si>
+    <t>pic_58</t>
+  </si>
+  <si>
+    <t>pic_59</t>
+  </si>
+  <si>
+    <t>pic_60</t>
+  </si>
+  <si>
+    <t>pic_61</t>
+  </si>
+  <si>
+    <t>pic_62</t>
+  </si>
+  <si>
+    <t>pic_63</t>
+  </si>
+  <si>
+    <t>pic_64</t>
+  </si>
+  <si>
+    <t>pic_65</t>
+  </si>
+  <si>
+    <t>pic_66</t>
+  </si>
+  <si>
+    <t>pic_67</t>
+  </si>
+  <si>
+    <t>pic_68</t>
+  </si>
+  <si>
+    <t>pic_69</t>
+  </si>
+  <si>
+    <t>pic_70</t>
+  </si>
+  <si>
+    <t>pic_71</t>
+  </si>
+  <si>
+    <t>pic_72</t>
+  </si>
+  <si>
+    <t>pic_73</t>
+  </si>
+  <si>
+    <t>pic_74</t>
+  </si>
+  <si>
+    <t>pic_75</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,82 +565,85 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -930,7 +1067,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="16">
         <v>5</v>
@@ -956,7 +1093,7 @@
         <v>24</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="16">
         <v>5</v>
@@ -982,7 +1119,7 @@
         <v>25</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="16">
         <v>5</v>
@@ -1057,7 +1194,7 @@
       <c r="J14" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1068,10 +1205,10 @@
   <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1219,8 +1356,8 @@
       <c r="C5" s="20">
         <v>100002</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>49</v>
+      <c r="D5" s="27" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="13">
         <v>3</v>
@@ -1243,7 +1380,7 @@
       <c r="C6" s="20">
         <v>100003</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="27" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="13">
@@ -1267,7 +1404,7 @@
       <c r="C7" s="20">
         <v>100004</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="13">
@@ -1291,7 +1428,7 @@
       <c r="C8" s="20">
         <v>100005</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="27" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="13">
@@ -1315,7 +1452,7 @@
       <c r="C9" s="20">
         <v>100006</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>54</v>
       </c>
       <c r="E9" s="13">
@@ -1339,7 +1476,7 @@
       <c r="C10" s="20">
         <v>100007</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="27" t="s">
         <v>55</v>
       </c>
       <c r="E10" s="13">
@@ -1363,7 +1500,7 @@
       <c r="C11" s="20">
         <v>100008</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="13">
@@ -1387,8 +1524,8 @@
       <c r="C12" s="20">
         <v>100009</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>49</v>
+      <c r="D12" s="27" t="s">
+        <v>57</v>
       </c>
       <c r="E12" s="13">
         <v>3</v>
@@ -1411,8 +1548,8 @@
       <c r="C13" s="20">
         <v>100010</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>51</v>
+      <c r="D13" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="E13" s="13">
         <v>4</v>
@@ -1438,8 +1575,8 @@
       <c r="C14" s="20">
         <v>100011</v>
       </c>
-      <c r="D14" s="26" t="s">
-        <v>52</v>
+      <c r="D14" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="E14" s="13">
         <v>3</v>
@@ -1462,8 +1599,8 @@
       <c r="C15" s="20">
         <v>100012</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>53</v>
+      <c r="D15" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="E15" s="13">
         <v>3</v>
@@ -1486,8 +1623,8 @@
       <c r="C16" s="20">
         <v>100013</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>54</v>
+      <c r="D16" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="E16" s="13">
         <v>4</v>
@@ -1510,8 +1647,8 @@
       <c r="C17" s="20">
         <v>100014</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>55</v>
+      <c r="D17" s="27" t="s">
+        <v>62</v>
       </c>
       <c r="E17" s="13">
         <v>3</v>
@@ -1534,8 +1671,8 @@
       <c r="C18" s="20">
         <v>100015</v>
       </c>
-      <c r="D18" s="26" t="s">
-        <v>56</v>
+      <c r="D18" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E18" s="13">
         <v>3</v>
@@ -1558,8 +1695,8 @@
       <c r="C19" s="20">
         <v>100016</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>49</v>
+      <c r="D19" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="13">
         <v>4</v>
@@ -1582,8 +1719,8 @@
       <c r="C20" s="20">
         <v>100017</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>51</v>
+      <c r="D20" s="27" t="s">
+        <v>65</v>
       </c>
       <c r="E20" s="13">
         <v>3</v>
@@ -1606,8 +1743,8 @@
       <c r="C21" s="20">
         <v>100018</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>52</v>
+      <c r="D21" s="27" t="s">
+        <v>66</v>
       </c>
       <c r="E21" s="13">
         <v>4</v>
@@ -1630,8 +1767,8 @@
       <c r="C22" s="20">
         <v>100019</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>53</v>
+      <c r="D22" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="E22" s="13">
         <v>5</v>
@@ -1657,8 +1794,8 @@
       <c r="C23" s="20">
         <v>100020</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>54</v>
+      <c r="D23" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="E23" s="13">
         <v>3</v>
@@ -1681,8 +1818,8 @@
       <c r="C24" s="20">
         <v>100021</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>55</v>
+      <c r="D24" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="13">
         <v>4</v>
@@ -1705,8 +1842,8 @@
       <c r="C25" s="20">
         <v>100022</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>56</v>
+      <c r="D25" s="27" t="s">
+        <v>70</v>
       </c>
       <c r="E25" s="13">
         <v>5</v>
@@ -1731,8 +1868,8 @@
       <c r="C26" s="20">
         <v>100023</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>49</v>
+      <c r="D26" s="27" t="s">
+        <v>71</v>
       </c>
       <c r="E26" s="13">
         <v>3</v>
@@ -1754,8 +1891,8 @@
       <c r="C27" s="20">
         <v>100024</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>51</v>
+      <c r="D27" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E27" s="13">
         <v>4</v>
@@ -1777,8 +1914,8 @@
       <c r="C28" s="20">
         <v>100025</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>52</v>
+      <c r="D28" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="E28" s="13">
         <v>5</v>
@@ -1803,8 +1940,8 @@
       <c r="C29" s="13">
         <v>200001</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>53</v>
+      <c r="D29" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="E29" s="13">
         <v>4</v>
@@ -1826,8 +1963,8 @@
       <c r="C30" s="13">
         <v>200002</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>54</v>
+      <c r="D30" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="E30" s="13">
         <v>3</v>
@@ -1849,8 +1986,8 @@
       <c r="C31" s="13">
         <v>200003</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>55</v>
+      <c r="D31" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="E31" s="13">
         <v>3</v>
@@ -1872,8 +2009,8 @@
       <c r="C32" s="13">
         <v>200004</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>56</v>
+      <c r="D32" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="E32" s="13">
         <v>3</v>
@@ -1895,8 +2032,8 @@
       <c r="C33" s="13">
         <v>200005</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>49</v>
+      <c r="D33" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="E33" s="13">
         <v>3</v>
@@ -1918,8 +2055,8 @@
       <c r="C34" s="13">
         <v>200006</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>51</v>
+      <c r="D34" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="E34" s="13">
         <v>3</v>
@@ -1941,8 +2078,8 @@
       <c r="C35" s="13">
         <v>200007</v>
       </c>
-      <c r="D35" s="26" t="s">
-        <v>52</v>
+      <c r="D35" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="E35" s="13">
         <v>3</v>
@@ -1964,8 +2101,8 @@
       <c r="C36" s="13">
         <v>200008</v>
       </c>
-      <c r="D36" s="26" t="s">
-        <v>53</v>
+      <c r="D36" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="E36" s="13">
         <v>3</v>
@@ -1987,8 +2124,8 @@
       <c r="C37" s="13">
         <v>200009</v>
       </c>
-      <c r="D37" s="26" t="s">
-        <v>54</v>
+      <c r="D37" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="E37" s="13">
         <v>3</v>
@@ -2010,8 +2147,8 @@
       <c r="C38" s="13">
         <v>200010</v>
       </c>
-      <c r="D38" s="26" t="s">
-        <v>55</v>
+      <c r="D38" s="27" t="s">
+        <v>83</v>
       </c>
       <c r="E38" s="13">
         <v>4</v>
@@ -2036,8 +2173,8 @@
       <c r="C39" s="13">
         <v>200011</v>
       </c>
-      <c r="D39" s="26" t="s">
-        <v>56</v>
+      <c r="D39" s="27" t="s">
+        <v>84</v>
       </c>
       <c r="E39" s="13">
         <v>3</v>
@@ -2059,8 +2196,8 @@
       <c r="C40" s="13">
         <v>200012</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>49</v>
+      <c r="D40" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="E40" s="13">
         <v>3</v>
@@ -2082,8 +2219,8 @@
       <c r="C41" s="13">
         <v>200013</v>
       </c>
-      <c r="D41" s="26" t="s">
-        <v>51</v>
+      <c r="D41" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="E41" s="13">
         <v>4</v>
@@ -2105,8 +2242,8 @@
       <c r="C42" s="13">
         <v>200014</v>
       </c>
-      <c r="D42" s="26" t="s">
-        <v>52</v>
+      <c r="D42" s="27" t="s">
+        <v>87</v>
       </c>
       <c r="E42" s="13">
         <v>3</v>
@@ -2128,8 +2265,8 @@
       <c r="C43" s="13">
         <v>200015</v>
       </c>
-      <c r="D43" s="26" t="s">
-        <v>53</v>
+      <c r="D43" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="E43" s="13">
         <v>3</v>
@@ -2151,8 +2288,8 @@
       <c r="C44" s="13">
         <v>200016</v>
       </c>
-      <c r="D44" s="26" t="s">
-        <v>54</v>
+      <c r="D44" s="27" t="s">
+        <v>89</v>
       </c>
       <c r="E44" s="13">
         <v>4</v>
@@ -2174,8 +2311,8 @@
       <c r="C45" s="13">
         <v>200017</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>55</v>
+      <c r="D45" s="27" t="s">
+        <v>90</v>
       </c>
       <c r="E45" s="13">
         <v>3</v>
@@ -2197,8 +2334,8 @@
       <c r="C46" s="13">
         <v>200018</v>
       </c>
-      <c r="D46" s="26" t="s">
-        <v>56</v>
+      <c r="D46" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="E46" s="13">
         <v>4</v>
@@ -2220,8 +2357,8 @@
       <c r="C47" s="13">
         <v>200019</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>49</v>
+      <c r="D47" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="E47" s="13">
         <v>5</v>
@@ -2246,8 +2383,8 @@
       <c r="C48" s="13">
         <v>200020</v>
       </c>
-      <c r="D48" s="26" t="s">
-        <v>51</v>
+      <c r="D48" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="E48" s="13">
         <v>3</v>
@@ -2269,8 +2406,8 @@
       <c r="C49" s="13">
         <v>200021</v>
       </c>
-      <c r="D49" s="26" t="s">
-        <v>52</v>
+      <c r="D49" s="27" t="s">
+        <v>94</v>
       </c>
       <c r="E49" s="13">
         <v>4</v>
@@ -2292,8 +2429,8 @@
       <c r="C50" s="13">
         <v>200022</v>
       </c>
-      <c r="D50" s="26" t="s">
-        <v>53</v>
+      <c r="D50" s="27" t="s">
+        <v>95</v>
       </c>
       <c r="E50" s="13">
         <v>5</v>
@@ -2318,8 +2455,8 @@
       <c r="C51" s="13">
         <v>200023</v>
       </c>
-      <c r="D51" s="26" t="s">
-        <v>54</v>
+      <c r="D51" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="E51" s="13">
         <v>3</v>
@@ -2341,8 +2478,8 @@
       <c r="C52" s="13">
         <v>200024</v>
       </c>
-      <c r="D52" s="26" t="s">
-        <v>55</v>
+      <c r="D52" s="27" t="s">
+        <v>97</v>
       </c>
       <c r="E52" s="13">
         <v>4</v>
@@ -2364,8 +2501,8 @@
       <c r="C53" s="13">
         <v>200025</v>
       </c>
-      <c r="D53" s="26" t="s">
-        <v>56</v>
+      <c r="D53" s="27" t="s">
+        <v>98</v>
       </c>
       <c r="E53" s="13">
         <v>5</v>
@@ -2390,8 +2527,8 @@
       <c r="C54" s="13">
         <v>300001</v>
       </c>
-      <c r="D54" s="20" t="s">
-        <v>49</v>
+      <c r="D54" s="27" t="s">
+        <v>99</v>
       </c>
       <c r="E54" s="13">
         <v>4</v>
@@ -2413,8 +2550,8 @@
       <c r="C55" s="13">
         <v>300002</v>
       </c>
-      <c r="D55" s="26" t="s">
-        <v>51</v>
+      <c r="D55" s="27" t="s">
+        <v>100</v>
       </c>
       <c r="E55" s="13">
         <v>3</v>
@@ -2436,8 +2573,8 @@
       <c r="C56" s="13">
         <v>300003</v>
       </c>
-      <c r="D56" s="26" t="s">
-        <v>52</v>
+      <c r="D56" s="27" t="s">
+        <v>101</v>
       </c>
       <c r="E56" s="13">
         <v>3</v>
@@ -2459,8 +2596,8 @@
       <c r="C57" s="13">
         <v>300004</v>
       </c>
-      <c r="D57" s="26" t="s">
-        <v>53</v>
+      <c r="D57" s="27" t="s">
+        <v>102</v>
       </c>
       <c r="E57" s="13">
         <v>3</v>
@@ -2482,8 +2619,8 @@
       <c r="C58" s="13">
         <v>300005</v>
       </c>
-      <c r="D58" s="26" t="s">
-        <v>54</v>
+      <c r="D58" s="27" t="s">
+        <v>103</v>
       </c>
       <c r="E58" s="13">
         <v>3</v>
@@ -2505,8 +2642,8 @@
       <c r="C59" s="13">
         <v>300006</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>55</v>
+      <c r="D59" s="27" t="s">
+        <v>104</v>
       </c>
       <c r="E59" s="13">
         <v>3</v>
@@ -2528,8 +2665,8 @@
       <c r="C60" s="13">
         <v>300007</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>56</v>
+      <c r="D60" s="27" t="s">
+        <v>105</v>
       </c>
       <c r="E60" s="13">
         <v>3</v>
@@ -2551,8 +2688,8 @@
       <c r="C61" s="13">
         <v>300008</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>49</v>
+      <c r="D61" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="E61" s="13">
         <v>3</v>
@@ -2574,8 +2711,8 @@
       <c r="C62" s="13">
         <v>300009</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>51</v>
+      <c r="D62" s="27" t="s">
+        <v>107</v>
       </c>
       <c r="E62" s="13">
         <v>3</v>
@@ -2597,8 +2734,8 @@
       <c r="C63" s="13">
         <v>300010</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>52</v>
+      <c r="D63" s="27" t="s">
+        <v>108</v>
       </c>
       <c r="E63" s="13">
         <v>4</v>
@@ -2623,8 +2760,8 @@
       <c r="C64" s="13">
         <v>300011</v>
       </c>
-      <c r="D64" s="26" t="s">
-        <v>53</v>
+      <c r="D64" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="E64" s="13">
         <v>3</v>
@@ -2646,8 +2783,8 @@
       <c r="C65" s="13">
         <v>300012</v>
       </c>
-      <c r="D65" s="26" t="s">
-        <v>54</v>
+      <c r="D65" s="27" t="s">
+        <v>110</v>
       </c>
       <c r="E65" s="13">
         <v>3</v>
@@ -2669,8 +2806,8 @@
       <c r="C66" s="13">
         <v>300013</v>
       </c>
-      <c r="D66" s="26" t="s">
-        <v>55</v>
+      <c r="D66" s="27" t="s">
+        <v>111</v>
       </c>
       <c r="E66" s="13">
         <v>4</v>
@@ -2692,8 +2829,8 @@
       <c r="C67" s="13">
         <v>300014</v>
       </c>
-      <c r="D67" s="26" t="s">
-        <v>56</v>
+      <c r="D67" s="27" t="s">
+        <v>112</v>
       </c>
       <c r="E67" s="13">
         <v>3</v>
@@ -2715,8 +2852,8 @@
       <c r="C68" s="13">
         <v>300015</v>
       </c>
-      <c r="D68" s="20" t="s">
-        <v>49</v>
+      <c r="D68" s="27" t="s">
+        <v>113</v>
       </c>
       <c r="E68" s="13">
         <v>3</v>
@@ -2738,8 +2875,8 @@
       <c r="C69" s="13">
         <v>300016</v>
       </c>
-      <c r="D69" s="26" t="s">
-        <v>51</v>
+      <c r="D69" s="27" t="s">
+        <v>114</v>
       </c>
       <c r="E69" s="13">
         <v>4</v>
@@ -2761,8 +2898,8 @@
       <c r="C70" s="13">
         <v>300017</v>
       </c>
-      <c r="D70" s="26" t="s">
-        <v>52</v>
+      <c r="D70" s="27" t="s">
+        <v>115</v>
       </c>
       <c r="E70" s="13">
         <v>3</v>
@@ -2784,8 +2921,8 @@
       <c r="C71" s="13">
         <v>300018</v>
       </c>
-      <c r="D71" s="26" t="s">
-        <v>53</v>
+      <c r="D71" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="E71" s="13">
         <v>4</v>
@@ -2807,8 +2944,8 @@
       <c r="C72" s="13">
         <v>300019</v>
       </c>
-      <c r="D72" s="26" t="s">
-        <v>54</v>
+      <c r="D72" s="27" t="s">
+        <v>117</v>
       </c>
       <c r="E72" s="13">
         <v>5</v>
@@ -2833,8 +2970,8 @@
       <c r="C73" s="13">
         <v>300020</v>
       </c>
-      <c r="D73" s="26" t="s">
-        <v>55</v>
+      <c r="D73" s="27" t="s">
+        <v>118</v>
       </c>
       <c r="E73" s="13">
         <v>3</v>
@@ -2856,8 +2993,8 @@
       <c r="C74" s="13">
         <v>300021</v>
       </c>
-      <c r="D74" s="26" t="s">
-        <v>56</v>
+      <c r="D74" s="27" t="s">
+        <v>119</v>
       </c>
       <c r="E74" s="13">
         <v>4</v>
@@ -2879,8 +3016,8 @@
       <c r="C75" s="13">
         <v>300022</v>
       </c>
-      <c r="D75" s="20" t="s">
-        <v>49</v>
+      <c r="D75" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="E75" s="13">
         <v>5</v>
@@ -2905,8 +3042,8 @@
       <c r="C76" s="13">
         <v>300023</v>
       </c>
-      <c r="D76" s="26" t="s">
-        <v>51</v>
+      <c r="D76" s="27" t="s">
+        <v>121</v>
       </c>
       <c r="E76" s="13">
         <v>3</v>
@@ -2928,8 +3065,8 @@
       <c r="C77" s="13">
         <v>300024</v>
       </c>
-      <c r="D77" s="26" t="s">
-        <v>52</v>
+      <c r="D77" s="27" t="s">
+        <v>122</v>
       </c>
       <c r="E77" s="13">
         <v>4</v>
@@ -2951,8 +3088,8 @@
       <c r="C78" s="13">
         <v>300025</v>
       </c>
-      <c r="D78" s="26" t="s">
-        <v>53</v>
+      <c r="D78" s="27" t="s">
+        <v>123</v>
       </c>
       <c r="E78" s="13">
         <v>5</v>
@@ -2975,7 +3112,7 @@
         <v>300025</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="E79" s="13">
         <v>4</v>
@@ -2997,7 +3134,7 @@
       <c r="D81" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/config/MiniTemplate/Datas/jig-g-关卡.xlsx
+++ b/config/MiniTemplate/Datas/jig-g-关卡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30940" windowHeight="16900"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
   <si>
     <t>##var</t>
   </si>
@@ -216,240 +216,266 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>chapter</t>
-  </si>
-  <si>
-    <t>pic_1</t>
-  </si>
-  <si>
-    <t>pic_2</t>
-  </si>
-  <si>
-    <t>pic_3</t>
-  </si>
-  <si>
-    <t>pic_4</t>
-  </si>
-  <si>
-    <t>pic_5</t>
-  </si>
-  <si>
-    <t>pic_6</t>
-  </si>
-  <si>
-    <t>pic_7</t>
-  </si>
-  <si>
-    <t>pic_8</t>
-  </si>
-  <si>
-    <t>pic_9</t>
-  </si>
-  <si>
-    <t>pic_10</t>
-  </si>
-  <si>
-    <t>pic_11</t>
-  </si>
-  <si>
-    <t>pic_12</t>
-  </si>
-  <si>
-    <t>pic_13</t>
-  </si>
-  <si>
-    <t>pic_14</t>
-  </si>
-  <si>
-    <t>pic_15</t>
-  </si>
-  <si>
-    <t>pic_16</t>
-  </si>
-  <si>
-    <t>pic_17</t>
-  </si>
-  <si>
-    <t>pic_18</t>
-  </si>
-  <si>
-    <t>pic_19</t>
-  </si>
-  <si>
-    <t>pic_20</t>
-  </si>
-  <si>
-    <t>pic_21</t>
-  </si>
-  <si>
-    <t>pic_22</t>
-  </si>
-  <si>
-    <t>pic_23</t>
-  </si>
-  <si>
-    <t>pic_24</t>
-  </si>
-  <si>
-    <t>pic_25</t>
-  </si>
-  <si>
-    <t>pic_26</t>
-  </si>
-  <si>
-    <t>pic_27</t>
-  </si>
-  <si>
-    <t>pic_28</t>
-  </si>
-  <si>
-    <t>pic_29</t>
-  </si>
-  <si>
-    <t>pic_30</t>
-  </si>
-  <si>
-    <t>pic_31</t>
-  </si>
-  <si>
-    <t>pic_32</t>
-  </si>
-  <si>
-    <t>pic_33</t>
-  </si>
-  <si>
-    <t>pic_34</t>
-  </si>
-  <si>
-    <t>pic_35</t>
-  </si>
-  <si>
-    <t>pic_36</t>
-  </si>
-  <si>
-    <t>pic_37</t>
-  </si>
-  <si>
-    <t>pic_38</t>
-  </si>
-  <si>
-    <t>pic_39</t>
-  </si>
-  <si>
-    <t>pic_40</t>
-  </si>
-  <si>
-    <t>pic_41</t>
-  </si>
-  <si>
-    <t>pic_42</t>
-  </si>
-  <si>
-    <t>pic_43</t>
-  </si>
-  <si>
-    <t>pic_44</t>
-  </si>
-  <si>
-    <t>pic_45</t>
-  </si>
-  <si>
-    <t>pic_46</t>
-  </si>
-  <si>
-    <t>pic_47</t>
-  </si>
-  <si>
-    <t>pic_48</t>
-  </si>
-  <si>
-    <t>pic_49</t>
-  </si>
-  <si>
-    <t>pic_50</t>
-  </si>
-  <si>
-    <t>pic_51</t>
-  </si>
-  <si>
-    <t>pic_52</t>
-  </si>
-  <si>
-    <t>pic_53</t>
-  </si>
-  <si>
-    <t>pic_54</t>
-  </si>
-  <si>
-    <t>pic_55</t>
-  </si>
-  <si>
-    <t>pic_56</t>
-  </si>
-  <si>
-    <t>pic_57</t>
-  </si>
-  <si>
-    <t>pic_58</t>
-  </si>
-  <si>
-    <t>pic_59</t>
-  </si>
-  <si>
-    <t>pic_60</t>
-  </si>
-  <si>
-    <t>pic_61</t>
-  </si>
-  <si>
-    <t>pic_62</t>
-  </si>
-  <si>
-    <t>pic_63</t>
-  </si>
-  <si>
-    <t>pic_64</t>
-  </si>
-  <si>
-    <t>pic_65</t>
-  </si>
-  <si>
-    <t>pic_66</t>
-  </si>
-  <si>
-    <t>pic_67</t>
-  </si>
-  <si>
-    <t>pic_68</t>
-  </si>
-  <si>
-    <t>pic_69</t>
-  </si>
-  <si>
-    <t>pic_70</t>
-  </si>
-  <si>
-    <t>pic_71</t>
-  </si>
-  <si>
-    <t>pic_72</t>
-  </si>
-  <si>
-    <t>pic_73</t>
-  </si>
-  <si>
-    <t>pic_74</t>
-  </si>
-  <si>
-    <t>pic_75</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <t>Puzzle/pic_1</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_2</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_3</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_4</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_5</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_6</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_7</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_8</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_9</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_10</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_11</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_12</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_13</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_14</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_15</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_16</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_17</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_18</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_19</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_20</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_21</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_22</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_23</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_24</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_25</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_26</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_27</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_28</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_29</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_30</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_31</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_32</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_33</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_34</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_35</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_36</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_37</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_38</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_39</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_40</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_41</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_42</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_43</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_44</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_45</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_46</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_47</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_48</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_49</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_50</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_51</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_52</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_53</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_54</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_55</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_56</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_57</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_58</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_59</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_60</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_61</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_62</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_63</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_64</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_65</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_66</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_67</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_68</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_69</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_70</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_71</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_72</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_73</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_74</t>
+  </si>
+  <si>
+    <t>Puzzle/pic_75</t>
+  </si>
+  <si>
+    <t>Picture/chapter</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Picture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>chapter</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +567,12 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -570,7 +602,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -612,7 +644,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -638,7 +669,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -918,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4140625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -962,11 +993,11 @@
       <c r="H1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -993,9 +1024,9 @@
       <c r="H2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
     </row>
@@ -1024,11 +1055,11 @@
       <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -1053,11 +1084,11 @@
       <c r="H4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="B5" s="8">
@@ -1067,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="E5" s="16">
         <v>5</v>
@@ -1092,8 +1123,8 @@
       <c r="C6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>49</v>
+      <c r="D6" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="E6" s="16">
         <v>5</v>
@@ -1118,8 +1149,8 @@
       <c r="C7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>49</v>
+      <c r="D7" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="E7" s="16">
         <v>5</v>
@@ -1136,7 +1167,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="H8" s="16"/>
@@ -1145,7 +1176,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
       <c r="H9" s="16"/>
@@ -1154,7 +1185,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="H10" s="16"/>
@@ -1204,11 +1235,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1254,10 +1285,10 @@
       <c r="I1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
@@ -1287,7 +1318,7 @@
       <c r="I2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="19"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
@@ -1317,10 +1348,10 @@
       <c r="I3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="24"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
@@ -1350,206 +1381,206 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B5" s="20">
+      <c r="B5" s="19">
         <v>100001</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>100002</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="13">
+        <v>3</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="H5" s="18">
+        <v>1</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B6" s="19">
+        <v>100002</v>
+      </c>
+      <c r="C6" s="19">
+        <v>100003</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="13">
-        <v>3</v>
-      </c>
-      <c r="F5" s="13">
-        <v>3</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="E6" s="13">
+        <v>3</v>
+      </c>
+      <c r="F6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18">
         <v>1</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B6" s="20">
-        <v>100002</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B7" s="19">
         <v>100003</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="C7" s="19">
+        <v>100004</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="13">
-        <v>3</v>
-      </c>
-      <c r="F6" s="13">
-        <v>3</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="E7" s="13">
+        <v>3</v>
+      </c>
+      <c r="F7" s="13">
+        <v>3</v>
+      </c>
+      <c r="H7" s="18">
         <v>1</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B7" s="20">
-        <v>100003</v>
-      </c>
-      <c r="C7" s="20">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B8" s="19">
         <v>100004</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="C8" s="19">
+        <v>100005</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="13">
-        <v>3</v>
-      </c>
-      <c r="F7" s="13">
-        <v>3</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19" t="s">
+      <c r="E8" s="13">
+        <v>3</v>
+      </c>
+      <c r="F8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B8" s="20">
-        <v>100004</v>
-      </c>
-      <c r="C8" s="20">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B9" s="19">
         <v>100005</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="C9" s="19">
+        <v>100006</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="13">
-        <v>3</v>
-      </c>
-      <c r="F8" s="13">
-        <v>3</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="E9" s="13">
+        <v>3</v>
+      </c>
+      <c r="F9" s="13">
+        <v>3</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B9" s="20">
-        <v>100005</v>
-      </c>
-      <c r="C9" s="20">
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B10" s="19">
         <v>100006</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="C10" s="19">
+        <v>100007</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="13">
-        <v>3</v>
-      </c>
-      <c r="F9" s="13">
-        <v>3</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="E10" s="13">
+        <v>3</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B10" s="20">
-        <v>100006</v>
-      </c>
-      <c r="C10" s="20">
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B11" s="19">
         <v>100007</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="C11" s="19">
+        <v>100008</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="13">
-        <v>3</v>
-      </c>
-      <c r="F10" s="13">
-        <v>3</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="19" t="s">
+      <c r="E11" s="13">
+        <v>3</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B11" s="20">
-        <v>100007</v>
-      </c>
-      <c r="C11" s="20">
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B12" s="19">
         <v>100008</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="C12" s="19">
+        <v>100009</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="13">
-        <v>3</v>
-      </c>
-      <c r="F11" s="13">
-        <v>3</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="19" t="s">
+      <c r="E12" s="13">
+        <v>3</v>
+      </c>
+      <c r="F12" s="13">
+        <v>3</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B12" s="20">
-        <v>100008</v>
-      </c>
-      <c r="C12" s="20">
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B13" s="19">
         <v>100009</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="C13" s="19">
+        <v>100010</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="E12" s="13">
-        <v>3</v>
-      </c>
-      <c r="F12" s="13">
-        <v>3</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B13" s="20">
-        <v>100009</v>
-      </c>
-      <c r="C13" s="20">
-        <v>100010</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>58</v>
       </c>
       <c r="E13" s="13">
         <v>4</v>
@@ -1560,215 +1591,215 @@
       <c r="G13" s="13">
         <v>2</v>
       </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18" t="s">
         <v>43</v>
       </c>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:13" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>100010</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>100011</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3</v>
+      </c>
+      <c r="F14" s="13">
+        <v>3</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B15" s="19">
+        <v>100011</v>
+      </c>
+      <c r="C15" s="19">
+        <v>100012</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="13">
-        <v>3</v>
-      </c>
-      <c r="F14" s="13">
-        <v>3</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19" t="s">
+      <c r="E15" s="13">
+        <v>3</v>
+      </c>
+      <c r="F15" s="13">
+        <v>3</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B15" s="20">
-        <v>100011</v>
-      </c>
-      <c r="C15" s="20">
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="B16" s="19">
         <v>100012</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="C16" s="19">
+        <v>100013</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="13">
-        <v>3</v>
-      </c>
-      <c r="F15" s="13">
-        <v>3</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="19" t="s">
+      <c r="E16" s="13">
+        <v>4</v>
+      </c>
+      <c r="F16" s="13">
+        <v>4</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B17" s="19">
+        <v>100013</v>
+      </c>
+      <c r="C17" s="19">
+        <v>100014</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="13">
+        <v>3</v>
+      </c>
+      <c r="F17" s="13">
+        <v>3</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="B16" s="20">
-        <v>100012</v>
-      </c>
-      <c r="C16" s="20">
-        <v>100013</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="13">
-        <v>4</v>
-      </c>
-      <c r="F16" s="13">
-        <v>4</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19" t="s">
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B18" s="19">
+        <v>100014</v>
+      </c>
+      <c r="C18" s="19">
+        <v>100015</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="13">
+        <v>3</v>
+      </c>
+      <c r="F18" s="13">
+        <v>3</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B19" s="19">
+        <v>100015</v>
+      </c>
+      <c r="C19" s="19">
+        <v>100016</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="13">
+        <v>4</v>
+      </c>
+      <c r="F19" s="13">
+        <v>4</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B17" s="20">
-        <v>100013</v>
-      </c>
-      <c r="C17" s="20">
-        <v>100014</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="13">
-        <v>3</v>
-      </c>
-      <c r="F17" s="13">
-        <v>3</v>
-      </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="19" t="s">
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B20" s="19">
+        <v>100016</v>
+      </c>
+      <c r="C20" s="19">
+        <v>100017</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="13">
+        <v>3</v>
+      </c>
+      <c r="F20" s="13">
+        <v>3</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B18" s="20">
-        <v>100014</v>
-      </c>
-      <c r="C18" s="20">
-        <v>100015</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="13">
-        <v>3</v>
-      </c>
-      <c r="F18" s="13">
-        <v>3</v>
-      </c>
-      <c r="H18" s="19">
-        <v>0</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B19" s="20">
-        <v>100015</v>
-      </c>
-      <c r="C19" s="20">
-        <v>100016</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="13">
-        <v>4</v>
-      </c>
-      <c r="F19" s="13">
-        <v>4</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="19" t="s">
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B21" s="19">
+        <v>100017</v>
+      </c>
+      <c r="C21" s="19">
+        <v>100018</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="13">
+        <v>4</v>
+      </c>
+      <c r="F21" s="13">
+        <v>4</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B20" s="20">
-        <v>100016</v>
-      </c>
-      <c r="C20" s="20">
-        <v>100017</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="13">
-        <v>3</v>
-      </c>
-      <c r="F20" s="13">
-        <v>3</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B21" s="20">
-        <v>100017</v>
-      </c>
-      <c r="C21" s="20">
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B22" s="19">
         <v>100018</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="C22" s="19">
+        <v>100019</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>66</v>
-      </c>
-      <c r="E21" s="13">
-        <v>4</v>
-      </c>
-      <c r="F21" s="13">
-        <v>4</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B22" s="20">
-        <v>100018</v>
-      </c>
-      <c r="C22" s="20">
-        <v>100019</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>67</v>
       </c>
       <c r="E22" s="13">
         <v>5</v>
@@ -1779,71 +1810,71 @@
       <c r="G22" s="13">
         <v>2</v>
       </c>
-      <c r="H22" s="19">
-        <v>0</v>
-      </c>
-      <c r="I22" s="19" t="s">
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B23" s="20">
+      <c r="B23" s="19">
         <v>100019</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="19">
         <v>100020</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="13">
+        <v>3</v>
+      </c>
+      <c r="F23" s="13">
+        <v>3</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B24" s="19">
+        <v>100020</v>
+      </c>
+      <c r="C24" s="19">
+        <v>100021</v>
+      </c>
+      <c r="D24" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="13">
-        <v>3</v>
-      </c>
-      <c r="F23" s="13">
-        <v>3</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B24" s="20">
-        <v>100020</v>
-      </c>
-      <c r="C24" s="20">
+      <c r="E24" s="13">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13">
+        <v>4</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B25" s="19">
         <v>100021</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="C25" s="19">
+        <v>100022</v>
+      </c>
+      <c r="D25" s="26" t="s">
         <v>69</v>
-      </c>
-      <c r="E24" s="13">
-        <v>4</v>
-      </c>
-      <c r="F24" s="13">
-        <v>4</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B25" s="20">
-        <v>100021</v>
-      </c>
-      <c r="C25" s="20">
-        <v>100022</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>70</v>
       </c>
       <c r="E25" s="13">
         <v>5</v>
@@ -1854,68 +1885,68 @@
       <c r="G25" s="13">
         <v>2</v>
       </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="25">
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="24">
         <v>71105</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B26" s="20">
+      <c r="B26" s="19">
         <v>100022</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>100023</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="13">
+        <v>3</v>
+      </c>
+      <c r="F26" s="13">
+        <v>3</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B27" s="19">
+        <v>100023</v>
+      </c>
+      <c r="C27" s="19">
+        <v>100024</v>
+      </c>
+      <c r="D27" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="13">
-        <v>3</v>
-      </c>
-      <c r="F26" s="13">
-        <v>3</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B27" s="20">
-        <v>100023</v>
-      </c>
-      <c r="C27" s="20">
+      <c r="E27" s="13">
+        <v>4</v>
+      </c>
+      <c r="F27" s="13">
+        <v>4</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B28" s="19">
         <v>100024</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="C28" s="19">
+        <v>100025</v>
+      </c>
+      <c r="D28" s="26" t="s">
         <v>72</v>
-      </c>
-      <c r="E27" s="13">
-        <v>4</v>
-      </c>
-      <c r="F27" s="13">
-        <v>4</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B28" s="20">
-        <v>100024</v>
-      </c>
-      <c r="C28" s="20">
-        <v>100025</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>73</v>
       </c>
       <c r="E28" s="13">
         <v>5</v>
@@ -1926,22 +1957,22 @@
       <c r="G28" s="13">
         <v>2</v>
       </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="25">
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="24">
         <v>71105</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B29" s="20">
+      <c r="B29" s="19">
         <v>100025</v>
       </c>
       <c r="C29" s="13">
         <v>200001</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>74</v>
+      <c r="D29" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="E29" s="13">
         <v>4</v>
@@ -1949,10 +1980,10 @@
       <c r="F29" s="13">
         <v>4</v>
       </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="19" t="s">
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1963,8 +1994,8 @@
       <c r="C30" s="13">
         <v>200002</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>75</v>
+      <c r="D30" s="26" t="s">
+        <v>74</v>
       </c>
       <c r="E30" s="13">
         <v>3</v>
@@ -1972,10 +2003,10 @@
       <c r="F30" s="13">
         <v>3</v>
       </c>
-      <c r="H30" s="19">
-        <v>0</v>
-      </c>
-      <c r="I30" s="19" t="s">
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1986,8 +2017,8 @@
       <c r="C31" s="13">
         <v>200003</v>
       </c>
-      <c r="D31" s="27" t="s">
-        <v>76</v>
+      <c r="D31" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="E31" s="13">
         <v>3</v>
@@ -1995,10 +2026,10 @@
       <c r="F31" s="13">
         <v>3</v>
       </c>
-      <c r="H31" s="19">
-        <v>0</v>
-      </c>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2009,8 +2040,8 @@
       <c r="C32" s="13">
         <v>200004</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>77</v>
+      <c r="D32" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E32" s="13">
         <v>3</v>
@@ -2018,10 +2049,10 @@
       <c r="F32" s="13">
         <v>3</v>
       </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="19" t="s">
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2032,8 +2063,8 @@
       <c r="C33" s="13">
         <v>200005</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>78</v>
+      <c r="D33" s="26" t="s">
+        <v>77</v>
       </c>
       <c r="E33" s="13">
         <v>3</v>
@@ -2041,10 +2072,10 @@
       <c r="F33" s="13">
         <v>3</v>
       </c>
-      <c r="H33" s="19">
-        <v>0</v>
-      </c>
-      <c r="I33" s="19" t="s">
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2055,8 +2086,8 @@
       <c r="C34" s="13">
         <v>200006</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>79</v>
+      <c r="D34" s="26" t="s">
+        <v>78</v>
       </c>
       <c r="E34" s="13">
         <v>3</v>
@@ -2064,10 +2095,10 @@
       <c r="F34" s="13">
         <v>3</v>
       </c>
-      <c r="H34" s="19">
-        <v>0</v>
-      </c>
-      <c r="I34" s="19" t="s">
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2078,8 +2109,8 @@
       <c r="C35" s="13">
         <v>200007</v>
       </c>
-      <c r="D35" s="27" t="s">
-        <v>80</v>
+      <c r="D35" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="E35" s="13">
         <v>3</v>
@@ -2087,10 +2118,10 @@
       <c r="F35" s="13">
         <v>3</v>
       </c>
-      <c r="H35" s="19">
-        <v>0</v>
-      </c>
-      <c r="I35" s="19" t="s">
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2101,8 +2132,8 @@
       <c r="C36" s="13">
         <v>200008</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>81</v>
+      <c r="D36" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="E36" s="13">
         <v>3</v>
@@ -2110,10 +2141,10 @@
       <c r="F36" s="13">
         <v>3</v>
       </c>
-      <c r="H36" s="19">
-        <v>0</v>
-      </c>
-      <c r="I36" s="19" t="s">
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2124,8 +2155,8 @@
       <c r="C37" s="13">
         <v>200009</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>82</v>
+      <c r="D37" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="E37" s="13">
         <v>3</v>
@@ -2133,10 +2164,10 @@
       <c r="F37" s="13">
         <v>3</v>
       </c>
-      <c r="H37" s="19">
-        <v>0</v>
-      </c>
-      <c r="I37" s="19" t="s">
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2147,8 +2178,8 @@
       <c r="C38" s="13">
         <v>200010</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>83</v>
+      <c r="D38" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="E38" s="13">
         <v>4</v>
@@ -2159,10 +2190,10 @@
       <c r="G38" s="13">
         <v>2</v>
       </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="19" t="s">
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2173,8 +2204,8 @@
       <c r="C39" s="13">
         <v>200011</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>84</v>
+      <c r="D39" s="26" t="s">
+        <v>83</v>
       </c>
       <c r="E39" s="13">
         <v>3</v>
@@ -2182,10 +2213,10 @@
       <c r="F39" s="13">
         <v>3</v>
       </c>
-      <c r="H39" s="19">
-        <v>0</v>
-      </c>
-      <c r="I39" s="19" t="s">
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2196,8 +2227,8 @@
       <c r="C40" s="13">
         <v>200012</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>85</v>
+      <c r="D40" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="E40" s="13">
         <v>3</v>
@@ -2205,10 +2236,10 @@
       <c r="F40" s="13">
         <v>3</v>
       </c>
-      <c r="H40" s="19">
-        <v>0</v>
-      </c>
-      <c r="I40" s="19" t="s">
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+      <c r="I40" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2219,8 +2250,8 @@
       <c r="C41" s="13">
         <v>200013</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>86</v>
+      <c r="D41" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="E41" s="13">
         <v>4</v>
@@ -2228,10 +2259,10 @@
       <c r="F41" s="13">
         <v>4</v>
       </c>
-      <c r="H41" s="19">
-        <v>0</v>
-      </c>
-      <c r="I41" s="19" t="s">
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
+      <c r="I41" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2242,8 +2273,8 @@
       <c r="C42" s="13">
         <v>200014</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>87</v>
+      <c r="D42" s="26" t="s">
+        <v>86</v>
       </c>
       <c r="E42" s="13">
         <v>3</v>
@@ -2251,10 +2282,10 @@
       <c r="F42" s="13">
         <v>3</v>
       </c>
-      <c r="H42" s="19">
-        <v>0</v>
-      </c>
-      <c r="I42" s="19" t="s">
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2265,8 +2296,8 @@
       <c r="C43" s="13">
         <v>200015</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>88</v>
+      <c r="D43" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="E43" s="13">
         <v>3</v>
@@ -2274,10 +2305,10 @@
       <c r="F43" s="13">
         <v>3</v>
       </c>
-      <c r="H43" s="19">
-        <v>0</v>
-      </c>
-      <c r="I43" s="19" t="s">
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2288,8 +2319,8 @@
       <c r="C44" s="13">
         <v>200016</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>89</v>
+      <c r="D44" s="26" t="s">
+        <v>88</v>
       </c>
       <c r="E44" s="13">
         <v>4</v>
@@ -2297,10 +2328,10 @@
       <c r="F44" s="13">
         <v>4</v>
       </c>
-      <c r="H44" s="19">
-        <v>0</v>
-      </c>
-      <c r="I44" s="19" t="s">
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+      <c r="I44" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2311,8 +2342,8 @@
       <c r="C45" s="13">
         <v>200017</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>90</v>
+      <c r="D45" s="26" t="s">
+        <v>89</v>
       </c>
       <c r="E45" s="13">
         <v>3</v>
@@ -2320,10 +2351,10 @@
       <c r="F45" s="13">
         <v>3</v>
       </c>
-      <c r="H45" s="19">
-        <v>0</v>
-      </c>
-      <c r="I45" s="19" t="s">
+      <c r="H45" s="18">
+        <v>0</v>
+      </c>
+      <c r="I45" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2334,8 +2365,8 @@
       <c r="C46" s="13">
         <v>200018</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>91</v>
+      <c r="D46" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="E46" s="13">
         <v>4</v>
@@ -2343,10 +2374,10 @@
       <c r="F46" s="13">
         <v>4</v>
       </c>
-      <c r="H46" s="19">
-        <v>0</v>
-      </c>
-      <c r="I46" s="19" t="s">
+      <c r="H46" s="18">
+        <v>0</v>
+      </c>
+      <c r="I46" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2357,8 +2388,8 @@
       <c r="C47" s="13">
         <v>200019</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>92</v>
+      <c r="D47" s="26" t="s">
+        <v>91</v>
       </c>
       <c r="E47" s="13">
         <v>5</v>
@@ -2369,10 +2400,10 @@
       <c r="G47" s="13">
         <v>2</v>
       </c>
-      <c r="H47" s="19">
-        <v>0</v>
-      </c>
-      <c r="I47" s="19" t="s">
+      <c r="H47" s="18">
+        <v>0</v>
+      </c>
+      <c r="I47" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2383,8 +2414,8 @@
       <c r="C48" s="13">
         <v>200020</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>93</v>
+      <c r="D48" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="E48" s="13">
         <v>3</v>
@@ -2392,10 +2423,10 @@
       <c r="F48" s="13">
         <v>3</v>
       </c>
-      <c r="H48" s="19">
-        <v>0</v>
-      </c>
-      <c r="I48" s="19" t="s">
+      <c r="H48" s="18">
+        <v>0</v>
+      </c>
+      <c r="I48" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2406,8 +2437,8 @@
       <c r="C49" s="13">
         <v>200021</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>94</v>
+      <c r="D49" s="26" t="s">
+        <v>93</v>
       </c>
       <c r="E49" s="13">
         <v>4</v>
@@ -2415,10 +2446,10 @@
       <c r="F49" s="13">
         <v>4</v>
       </c>
-      <c r="H49" s="19">
-        <v>0</v>
-      </c>
-      <c r="I49" s="19" t="s">
+      <c r="H49" s="18">
+        <v>0</v>
+      </c>
+      <c r="I49" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2429,8 +2460,8 @@
       <c r="C50" s="13">
         <v>200022</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>95</v>
+      <c r="D50" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="E50" s="13">
         <v>5</v>
@@ -2441,10 +2472,10 @@
       <c r="G50" s="13">
         <v>2</v>
       </c>
-      <c r="H50" s="19">
-        <v>0</v>
-      </c>
-      <c r="I50" s="25">
+      <c r="H50" s="18">
+        <v>0</v>
+      </c>
+      <c r="I50" s="24">
         <v>71105</v>
       </c>
     </row>
@@ -2455,8 +2486,8 @@
       <c r="C51" s="13">
         <v>200023</v>
       </c>
-      <c r="D51" s="27" t="s">
-        <v>96</v>
+      <c r="D51" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="E51" s="13">
         <v>3</v>
@@ -2464,10 +2495,10 @@
       <c r="F51" s="13">
         <v>3</v>
       </c>
-      <c r="H51" s="19">
-        <v>0</v>
-      </c>
-      <c r="I51" s="19" t="s">
+      <c r="H51" s="18">
+        <v>0</v>
+      </c>
+      <c r="I51" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2478,8 +2509,8 @@
       <c r="C52" s="13">
         <v>200024</v>
       </c>
-      <c r="D52" s="27" t="s">
-        <v>97</v>
+      <c r="D52" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="E52" s="13">
         <v>4</v>
@@ -2487,10 +2518,10 @@
       <c r="F52" s="13">
         <v>4</v>
       </c>
-      <c r="H52" s="19">
-        <v>0</v>
-      </c>
-      <c r="I52" s="19" t="s">
+      <c r="H52" s="18">
+        <v>0</v>
+      </c>
+      <c r="I52" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2501,8 +2532,8 @@
       <c r="C53" s="13">
         <v>200025</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>98</v>
+      <c r="D53" s="26" t="s">
+        <v>97</v>
       </c>
       <c r="E53" s="13">
         <v>5</v>
@@ -2513,10 +2544,10 @@
       <c r="G53" s="13">
         <v>2</v>
       </c>
-      <c r="H53" s="19">
-        <v>0</v>
-      </c>
-      <c r="I53" s="25">
+      <c r="H53" s="18">
+        <v>0</v>
+      </c>
+      <c r="I53" s="24">
         <v>71105</v>
       </c>
     </row>
@@ -2527,8 +2558,8 @@
       <c r="C54" s="13">
         <v>300001</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>99</v>
+      <c r="D54" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="E54" s="13">
         <v>4</v>
@@ -2536,10 +2567,10 @@
       <c r="F54" s="13">
         <v>4</v>
       </c>
-      <c r="H54" s="19">
-        <v>0</v>
-      </c>
-      <c r="I54" s="19" t="s">
+      <c r="H54" s="18">
+        <v>0</v>
+      </c>
+      <c r="I54" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2550,8 +2581,8 @@
       <c r="C55" s="13">
         <v>300002</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>100</v>
+      <c r="D55" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="E55" s="13">
         <v>3</v>
@@ -2559,10 +2590,10 @@
       <c r="F55" s="13">
         <v>3</v>
       </c>
-      <c r="H55" s="19">
-        <v>0</v>
-      </c>
-      <c r="I55" s="19" t="s">
+      <c r="H55" s="18">
+        <v>0</v>
+      </c>
+      <c r="I55" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2573,8 +2604,8 @@
       <c r="C56" s="13">
         <v>300003</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>101</v>
+      <c r="D56" s="26" t="s">
+        <v>100</v>
       </c>
       <c r="E56" s="13">
         <v>3</v>
@@ -2582,10 +2613,10 @@
       <c r="F56" s="13">
         <v>3</v>
       </c>
-      <c r="H56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="19" t="s">
+      <c r="H56" s="18">
+        <v>0</v>
+      </c>
+      <c r="I56" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2596,8 +2627,8 @@
       <c r="C57" s="13">
         <v>300004</v>
       </c>
-      <c r="D57" s="27" t="s">
-        <v>102</v>
+      <c r="D57" s="26" t="s">
+        <v>101</v>
       </c>
       <c r="E57" s="13">
         <v>3</v>
@@ -2605,10 +2636,10 @@
       <c r="F57" s="13">
         <v>3</v>
       </c>
-      <c r="H57" s="19">
-        <v>0</v>
-      </c>
-      <c r="I57" s="19" t="s">
+      <c r="H57" s="18">
+        <v>0</v>
+      </c>
+      <c r="I57" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2619,8 +2650,8 @@
       <c r="C58" s="13">
         <v>300005</v>
       </c>
-      <c r="D58" s="27" t="s">
-        <v>103</v>
+      <c r="D58" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="E58" s="13">
         <v>3</v>
@@ -2628,10 +2659,10 @@
       <c r="F58" s="13">
         <v>3</v>
       </c>
-      <c r="H58" s="19">
-        <v>0</v>
-      </c>
-      <c r="I58" s="19" t="s">
+      <c r="H58" s="18">
+        <v>0</v>
+      </c>
+      <c r="I58" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2642,8 +2673,8 @@
       <c r="C59" s="13">
         <v>300006</v>
       </c>
-      <c r="D59" s="27" t="s">
-        <v>104</v>
+      <c r="D59" s="26" t="s">
+        <v>103</v>
       </c>
       <c r="E59" s="13">
         <v>3</v>
@@ -2651,10 +2682,10 @@
       <c r="F59" s="13">
         <v>3</v>
       </c>
-      <c r="H59" s="19">
-        <v>0</v>
-      </c>
-      <c r="I59" s="19" t="s">
+      <c r="H59" s="18">
+        <v>0</v>
+      </c>
+      <c r="I59" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2665,8 +2696,8 @@
       <c r="C60" s="13">
         <v>300007</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>105</v>
+      <c r="D60" s="26" t="s">
+        <v>104</v>
       </c>
       <c r="E60" s="13">
         <v>3</v>
@@ -2674,10 +2705,10 @@
       <c r="F60" s="13">
         <v>3</v>
       </c>
-      <c r="H60" s="19">
-        <v>0</v>
-      </c>
-      <c r="I60" s="19" t="s">
+      <c r="H60" s="18">
+        <v>0</v>
+      </c>
+      <c r="I60" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2688,8 +2719,8 @@
       <c r="C61" s="13">
         <v>300008</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>106</v>
+      <c r="D61" s="26" t="s">
+        <v>105</v>
       </c>
       <c r="E61" s="13">
         <v>3</v>
@@ -2697,10 +2728,10 @@
       <c r="F61" s="13">
         <v>3</v>
       </c>
-      <c r="H61" s="19">
-        <v>0</v>
-      </c>
-      <c r="I61" s="19" t="s">
+      <c r="H61" s="18">
+        <v>0</v>
+      </c>
+      <c r="I61" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2711,8 +2742,8 @@
       <c r="C62" s="13">
         <v>300009</v>
       </c>
-      <c r="D62" s="27" t="s">
-        <v>107</v>
+      <c r="D62" s="26" t="s">
+        <v>106</v>
       </c>
       <c r="E62" s="13">
         <v>3</v>
@@ -2720,10 +2751,10 @@
       <c r="F62" s="13">
         <v>3</v>
       </c>
-      <c r="H62" s="19">
-        <v>0</v>
-      </c>
-      <c r="I62" s="19" t="s">
+      <c r="H62" s="18">
+        <v>0</v>
+      </c>
+      <c r="I62" s="18" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2734,8 +2765,8 @@
       <c r="C63" s="13">
         <v>300010</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>108</v>
+      <c r="D63" s="26" t="s">
+        <v>107</v>
       </c>
       <c r="E63" s="13">
         <v>4</v>
@@ -2746,10 +2777,10 @@
       <c r="G63" s="13">
         <v>2</v>
       </c>
-      <c r="H63" s="19">
-        <v>0</v>
-      </c>
-      <c r="I63" s="19" t="s">
+      <c r="H63" s="18">
+        <v>0</v>
+      </c>
+      <c r="I63" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2760,8 +2791,8 @@
       <c r="C64" s="13">
         <v>300011</v>
       </c>
-      <c r="D64" s="27" t="s">
-        <v>109</v>
+      <c r="D64" s="26" t="s">
+        <v>108</v>
       </c>
       <c r="E64" s="13">
         <v>3</v>
@@ -2769,10 +2800,10 @@
       <c r="F64" s="13">
         <v>3</v>
       </c>
-      <c r="H64" s="19">
-        <v>0</v>
-      </c>
-      <c r="I64" s="19" t="s">
+      <c r="H64" s="18">
+        <v>0</v>
+      </c>
+      <c r="I64" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2783,8 +2814,8 @@
       <c r="C65" s="13">
         <v>300012</v>
       </c>
-      <c r="D65" s="27" t="s">
-        <v>110</v>
+      <c r="D65" s="26" t="s">
+        <v>109</v>
       </c>
       <c r="E65" s="13">
         <v>3</v>
@@ -2792,10 +2823,10 @@
       <c r="F65" s="13">
         <v>3</v>
       </c>
-      <c r="H65" s="19">
-        <v>0</v>
-      </c>
-      <c r="I65" s="19" t="s">
+      <c r="H65" s="18">
+        <v>0</v>
+      </c>
+      <c r="I65" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2806,8 +2837,8 @@
       <c r="C66" s="13">
         <v>300013</v>
       </c>
-      <c r="D66" s="27" t="s">
-        <v>111</v>
+      <c r="D66" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="E66" s="13">
         <v>4</v>
@@ -2815,10 +2846,10 @@
       <c r="F66" s="13">
         <v>4</v>
       </c>
-      <c r="H66" s="19">
-        <v>0</v>
-      </c>
-      <c r="I66" s="19" t="s">
+      <c r="H66" s="18">
+        <v>0</v>
+      </c>
+      <c r="I66" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2829,8 +2860,8 @@
       <c r="C67" s="13">
         <v>300014</v>
       </c>
-      <c r="D67" s="27" t="s">
-        <v>112</v>
+      <c r="D67" s="26" t="s">
+        <v>111</v>
       </c>
       <c r="E67" s="13">
         <v>3</v>
@@ -2838,10 +2869,10 @@
       <c r="F67" s="13">
         <v>3</v>
       </c>
-      <c r="H67" s="19">
-        <v>0</v>
-      </c>
-      <c r="I67" s="19" t="s">
+      <c r="H67" s="18">
+        <v>0</v>
+      </c>
+      <c r="I67" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2852,8 +2883,8 @@
       <c r="C68" s="13">
         <v>300015</v>
       </c>
-      <c r="D68" s="27" t="s">
-        <v>113</v>
+      <c r="D68" s="26" t="s">
+        <v>112</v>
       </c>
       <c r="E68" s="13">
         <v>3</v>
@@ -2861,10 +2892,10 @@
       <c r="F68" s="13">
         <v>3</v>
       </c>
-      <c r="H68" s="19">
-        <v>0</v>
-      </c>
-      <c r="I68" s="19" t="s">
+      <c r="H68" s="18">
+        <v>0</v>
+      </c>
+      <c r="I68" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2875,8 +2906,8 @@
       <c r="C69" s="13">
         <v>300016</v>
       </c>
-      <c r="D69" s="27" t="s">
-        <v>114</v>
+      <c r="D69" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="E69" s="13">
         <v>4</v>
@@ -2884,10 +2915,10 @@
       <c r="F69" s="13">
         <v>4</v>
       </c>
-      <c r="H69" s="19">
-        <v>0</v>
-      </c>
-      <c r="I69" s="19" t="s">
+      <c r="H69" s="18">
+        <v>0</v>
+      </c>
+      <c r="I69" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2898,8 +2929,8 @@
       <c r="C70" s="13">
         <v>300017</v>
       </c>
-      <c r="D70" s="27" t="s">
-        <v>115</v>
+      <c r="D70" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="E70" s="13">
         <v>3</v>
@@ -2907,10 +2938,10 @@
       <c r="F70" s="13">
         <v>3</v>
       </c>
-      <c r="H70" s="19">
-        <v>0</v>
-      </c>
-      <c r="I70" s="19" t="s">
+      <c r="H70" s="18">
+        <v>0</v>
+      </c>
+      <c r="I70" s="18" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2921,8 +2952,8 @@
       <c r="C71" s="13">
         <v>300018</v>
       </c>
-      <c r="D71" s="27" t="s">
-        <v>116</v>
+      <c r="D71" s="26" t="s">
+        <v>115</v>
       </c>
       <c r="E71" s="13">
         <v>4</v>
@@ -2930,10 +2961,10 @@
       <c r="F71" s="13">
         <v>4</v>
       </c>
-      <c r="H71" s="19">
-        <v>0</v>
-      </c>
-      <c r="I71" s="19" t="s">
+      <c r="H71" s="18">
+        <v>0</v>
+      </c>
+      <c r="I71" s="18" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2944,8 +2975,8 @@
       <c r="C72" s="13">
         <v>300019</v>
       </c>
-      <c r="D72" s="27" t="s">
-        <v>117</v>
+      <c r="D72" s="26" t="s">
+        <v>116</v>
       </c>
       <c r="E72" s="13">
         <v>5</v>
@@ -2956,10 +2987,10 @@
       <c r="G72" s="13">
         <v>2</v>
       </c>
-      <c r="H72" s="19">
-        <v>0</v>
-      </c>
-      <c r="I72" s="19" t="s">
+      <c r="H72" s="18">
+        <v>0</v>
+      </c>
+      <c r="I72" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2970,8 +3001,8 @@
       <c r="C73" s="13">
         <v>300020</v>
       </c>
-      <c r="D73" s="27" t="s">
-        <v>118</v>
+      <c r="D73" s="26" t="s">
+        <v>117</v>
       </c>
       <c r="E73" s="13">
         <v>3</v>
@@ -2979,10 +3010,10 @@
       <c r="F73" s="13">
         <v>3</v>
       </c>
-      <c r="H73" s="19">
-        <v>0</v>
-      </c>
-      <c r="I73" s="19" t="s">
+      <c r="H73" s="18">
+        <v>0</v>
+      </c>
+      <c r="I73" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2993,8 +3024,8 @@
       <c r="C74" s="13">
         <v>300021</v>
       </c>
-      <c r="D74" s="27" t="s">
-        <v>119</v>
+      <c r="D74" s="26" t="s">
+        <v>118</v>
       </c>
       <c r="E74" s="13">
         <v>4</v>
@@ -3002,10 +3033,10 @@
       <c r="F74" s="13">
         <v>4</v>
       </c>
-      <c r="H74" s="19">
-        <v>0</v>
-      </c>
-      <c r="I74" s="19" t="s">
+      <c r="H74" s="18">
+        <v>0</v>
+      </c>
+      <c r="I74" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3016,8 +3047,8 @@
       <c r="C75" s="13">
         <v>300022</v>
       </c>
-      <c r="D75" s="27" t="s">
-        <v>120</v>
+      <c r="D75" s="26" t="s">
+        <v>119</v>
       </c>
       <c r="E75" s="13">
         <v>5</v>
@@ -3028,10 +3059,10 @@
       <c r="G75" s="13">
         <v>2</v>
       </c>
-      <c r="H75" s="19">
-        <v>0</v>
-      </c>
-      <c r="I75" s="25">
+      <c r="H75" s="18">
+        <v>0</v>
+      </c>
+      <c r="I75" s="24">
         <v>71105</v>
       </c>
     </row>
@@ -3042,8 +3073,8 @@
       <c r="C76" s="13">
         <v>300023</v>
       </c>
-      <c r="D76" s="27" t="s">
-        <v>121</v>
+      <c r="D76" s="26" t="s">
+        <v>120</v>
       </c>
       <c r="E76" s="13">
         <v>3</v>
@@ -3051,10 +3082,10 @@
       <c r="F76" s="13">
         <v>3</v>
       </c>
-      <c r="H76" s="19">
-        <v>0</v>
-      </c>
-      <c r="I76" s="19" t="s">
+      <c r="H76" s="18">
+        <v>0</v>
+      </c>
+      <c r="I76" s="18" t="s">
         <v>46</v>
       </c>
     </row>
@@ -3065,8 +3096,8 @@
       <c r="C77" s="13">
         <v>300024</v>
       </c>
-      <c r="D77" s="27" t="s">
-        <v>122</v>
+      <c r="D77" s="26" t="s">
+        <v>121</v>
       </c>
       <c r="E77" s="13">
         <v>4</v>
@@ -3074,10 +3105,10 @@
       <c r="F77" s="13">
         <v>4</v>
       </c>
-      <c r="H77" s="19">
-        <v>0</v>
-      </c>
-      <c r="I77" s="19" t="s">
+      <c r="H77" s="18">
+        <v>0</v>
+      </c>
+      <c r="I77" s="18" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3088,8 +3119,8 @@
       <c r="C78" s="13">
         <v>300025</v>
       </c>
-      <c r="D78" s="27" t="s">
-        <v>123</v>
+      <c r="D78" s="26" t="s">
+        <v>122</v>
       </c>
       <c r="E78" s="13">
         <v>5</v>
@@ -3100,10 +3131,10 @@
       <c r="G78" s="13">
         <v>2</v>
       </c>
-      <c r="H78" s="19">
-        <v>0</v>
-      </c>
-      <c r="I78" s="25">
+      <c r="H78" s="18">
+        <v>0</v>
+      </c>
+      <c r="I78" s="24">
         <v>71105</v>
       </c>
     </row>
@@ -3112,7 +3143,7 @@
         <v>300025</v>
       </c>
       <c r="D79" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E79" s="13">
         <v>4</v>
@@ -3120,18 +3151,18 @@
       <c r="F79" s="13">
         <v>4</v>
       </c>
-      <c r="H79" s="19">
-        <v>0</v>
-      </c>
-      <c r="I79" s="19" t="s">
+      <c r="H79" s="18">
+        <v>0</v>
+      </c>
+      <c r="I79" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="D80" s="26"/>
+      <c r="D80" s="25"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D81" s="26"/>
+      <c r="D81" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
